--- a/data/sheet/2022/Schedule_Plus_2022W06_2022-02-07_2022-02-13.xlsx
+++ b/data/sheet/2022/Schedule_Plus_2022W06_2022-02-07_2022-02-13.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J86"/>
+  <dimension ref="A1:J89"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -517,11 +517,11 @@
         <v>44605</v>
       </c>
       <c r="G2" s="2" t="n">
-        <v>44605.00694444445</v>
+        <v>44605.00696759259</v>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>00:10:00</t>
+          <t>00:10:02</t>
         </is>
       </c>
       <c r="I2" t="inlineStr"/>
@@ -554,14 +554,14 @@
         </is>
       </c>
       <c r="F3" s="2" t="n">
-        <v>44605.00694444445</v>
+        <v>44605.00704861111</v>
       </c>
       <c r="G3" s="2" t="n">
-        <v>44605.02361111111</v>
+        <v>44605.02326388889</v>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>00:24:00</t>
+          <t>00:23:21</t>
         </is>
       </c>
       <c r="I3" t="inlineStr"/>
@@ -594,14 +594,14 @@
         </is>
       </c>
       <c r="F4" s="2" t="n">
-        <v>44605.02361111111</v>
+        <v>44605.02336805555</v>
       </c>
       <c r="G4" s="2" t="n">
-        <v>44605.04166666666</v>
+        <v>44605.03875</v>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>00:26:00</t>
+          <t>00:22:09</t>
         </is>
       </c>
       <c r="I4" t="inlineStr"/>
@@ -637,11 +637,11 @@
         <v>44605.04166666666</v>
       </c>
       <c r="G5" s="2" t="n">
-        <v>44605.04513888889</v>
+        <v>44605.04533564814</v>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>00:05:00</t>
+          <t>00:05:17</t>
         </is>
       </c>
       <c r="I5" t="inlineStr"/>
@@ -674,14 +674,14 @@
         </is>
       </c>
       <c r="F6" s="2" t="n">
-        <v>44605.04513888889</v>
+        <v>44605.04542824074</v>
       </c>
       <c r="G6" s="2" t="n">
-        <v>44605.0625</v>
+        <v>44605.06206018518</v>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>00:25:00</t>
+          <t>00:23:57</t>
         </is>
       </c>
       <c r="I6" t="inlineStr"/>
@@ -713,11 +713,11 @@
         <v>44605.0625</v>
       </c>
       <c r="G7" s="2" t="n">
-        <v>44605.06458333333</v>
+        <v>44605.06506944444</v>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>00:03:00</t>
+          <t>00:03:42</t>
         </is>
       </c>
       <c r="I7" t="inlineStr"/>
@@ -750,14 +750,14 @@
         </is>
       </c>
       <c r="F8" s="2" t="n">
-        <v>44605.06458333333</v>
+        <v>44605.06515046296</v>
       </c>
       <c r="G8" s="2" t="n">
-        <v>44605.08333333334</v>
+        <v>44605.08313657407</v>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>00:27:00</t>
+          <t>00:25:54</t>
         </is>
       </c>
       <c r="I8" t="inlineStr"/>
@@ -793,11 +793,11 @@
         <v>44605.08333333334</v>
       </c>
       <c r="G9" s="2" t="n">
-        <v>44605.08680555555</v>
+        <v>44605.08712962963</v>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>00:05:00</t>
+          <t>00:05:28</t>
         </is>
       </c>
       <c r="I9" t="inlineStr"/>
@@ -830,14 +830,14 @@
         </is>
       </c>
       <c r="F10" s="2" t="n">
-        <v>44605.08680555555</v>
+        <v>44605.08721064815</v>
       </c>
       <c r="G10" s="2" t="n">
-        <v>44605.10416666666</v>
+        <v>44605.10386574074</v>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>00:25:00</t>
+          <t>00:23:59</t>
         </is>
       </c>
       <c r="I10" t="inlineStr"/>
@@ -869,11 +869,11 @@
         <v>44605.10416666666</v>
       </c>
       <c r="G11" s="2" t="n">
-        <v>44605.10625</v>
+        <v>44605.10686342593</v>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>00:03:00</t>
+          <t>00:03:53</t>
         </is>
       </c>
       <c r="I11" t="inlineStr"/>
@@ -906,14 +906,14 @@
         </is>
       </c>
       <c r="F12" s="2" t="n">
-        <v>44605.10625</v>
+        <v>44605.10694444444</v>
       </c>
       <c r="G12" s="2" t="n">
-        <v>44605.125</v>
+        <v>44605.12496527778</v>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>00:27:00</t>
+          <t>00:25:57</t>
         </is>
       </c>
       <c r="I12" t="inlineStr"/>
@@ -949,11 +949,11 @@
         <v>44605.125</v>
       </c>
       <c r="G13" s="2" t="n">
-        <v>44605.12847222222</v>
+        <v>44605.12854166667</v>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>00:05:00</t>
+          <t>00:05:06</t>
         </is>
       </c>
       <c r="I13" t="inlineStr"/>
@@ -986,14 +986,14 @@
         </is>
       </c>
       <c r="F14" s="2" t="n">
-        <v>44605.12847222222</v>
+        <v>44605.12862268519</v>
       </c>
       <c r="G14" s="2" t="n">
-        <v>44605.14583333334</v>
+        <v>44605.14525462963</v>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>00:25:00</t>
+          <t>00:23:57</t>
         </is>
       </c>
       <c r="I14" t="inlineStr"/>
@@ -1025,11 +1025,11 @@
         <v>44605.14583333334</v>
       </c>
       <c r="G15" s="2" t="n">
-        <v>44605.14791666667</v>
+        <v>44605.14820601852</v>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>00:03:00</t>
+          <t>00:03:25</t>
         </is>
       </c>
       <c r="I15" t="inlineStr"/>
@@ -1062,14 +1062,14 @@
         </is>
       </c>
       <c r="F16" s="2" t="n">
-        <v>44605.14791666667</v>
+        <v>44605.14828703704</v>
       </c>
       <c r="G16" s="2" t="n">
-        <v>44605.16666666666</v>
+        <v>44605.16592592592</v>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>00:27:00</t>
+          <t>00:25:24</t>
         </is>
       </c>
       <c r="I16" t="inlineStr"/>
@@ -1105,11 +1105,11 @@
         <v>44605.16666666666</v>
       </c>
       <c r="G17" s="2" t="n">
-        <v>44605.17013888889</v>
+        <v>44605.1703587963</v>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>00:05:00</t>
+          <t>00:05:19</t>
         </is>
       </c>
       <c r="I17" t="inlineStr"/>
@@ -1142,14 +1142,14 @@
         </is>
       </c>
       <c r="F18" s="2" t="n">
-        <v>44605.17013888889</v>
+        <v>44605.17043981481</v>
       </c>
       <c r="G18" s="2" t="n">
-        <v>44605.1875</v>
+        <v>44605.18696759259</v>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>00:25:00</t>
+          <t>00:23:48</t>
         </is>
       </c>
       <c r="I18" t="inlineStr">
@@ -1185,11 +1185,11 @@
         <v>44605.1875</v>
       </c>
       <c r="G19" s="2" t="n">
-        <v>44605.18958333333</v>
+        <v>44605.19005787037</v>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>00:03:00</t>
+          <t>00:03:41</t>
         </is>
       </c>
       <c r="I19" t="inlineStr"/>
@@ -1222,14 +1222,14 @@
         </is>
       </c>
       <c r="F20" s="2" t="n">
-        <v>44605.18958333333</v>
+        <v>44605.19013888889</v>
       </c>
       <c r="G20" s="2" t="n">
-        <v>44605.20833333334</v>
+        <v>44605.20806712963</v>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>00:27:00</t>
+          <t>00:25:49</t>
         </is>
       </c>
       <c r="I20" t="inlineStr">
@@ -1269,11 +1269,11 @@
         <v>44605.20833333334</v>
       </c>
       <c r="G21" s="2" t="n">
-        <v>44605.21180555555</v>
+        <v>44605.21201388889</v>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>00:05:00</t>
+          <t>00:05:18</t>
         </is>
       </c>
       <c r="I21" t="inlineStr"/>
@@ -1306,14 +1306,14 @@
         </is>
       </c>
       <c r="F22" s="2" t="n">
-        <v>44605.21180555555</v>
+        <v>44605.21209490741</v>
       </c>
       <c r="G22" s="2" t="n">
-        <v>44605.23125</v>
+        <v>44605.23015046296</v>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>00:28:00</t>
+          <t>00:26:00</t>
         </is>
       </c>
       <c r="I22" t="inlineStr"/>
@@ -1346,14 +1346,14 @@
         </is>
       </c>
       <c r="F23" s="2" t="n">
-        <v>44605.23125</v>
+        <v>44605.23025462963</v>
       </c>
       <c r="G23" s="2" t="n">
-        <v>44605.25</v>
+        <v>44605.24836805555</v>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>00:27:00</t>
+          <t>00:26:05</t>
         </is>
       </c>
       <c r="I23" t="inlineStr"/>
@@ -1426,14 +1426,14 @@
         </is>
       </c>
       <c r="F25" s="2" t="n">
-        <v>44605.25347222222</v>
+        <v>44605.25412037037</v>
       </c>
       <c r="G25" s="2" t="n">
-        <v>44605.27083333334</v>
+        <v>44605.27075231481</v>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>00:25:00</t>
+          <t>00:23:57</t>
         </is>
       </c>
       <c r="I25" t="inlineStr"/>
@@ -1502,14 +1502,14 @@
         </is>
       </c>
       <c r="F27" s="2" t="n">
-        <v>44605.27361111111</v>
+        <v>44605.27328703704</v>
       </c>
       <c r="G27" s="2" t="n">
-        <v>44605.29166666666</v>
+        <v>44605.29063657407</v>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>00:26:00</t>
+          <t>00:24:59</t>
         </is>
       </c>
       <c r="I27" t="inlineStr">
@@ -1586,14 +1586,14 @@
         </is>
       </c>
       <c r="F29" s="2" t="n">
-        <v>44605.29652777778</v>
+        <v>44605.29673611111</v>
       </c>
       <c r="G29" s="2" t="n">
-        <v>44605.3125</v>
+        <v>44605.31211805555</v>
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>00:23:00</t>
+          <t>00:22:09</t>
         </is>
       </c>
       <c r="I29" t="inlineStr"/>
@@ -1662,14 +1662,14 @@
         </is>
       </c>
       <c r="F31" s="2" t="n">
-        <v>44605.31458333333</v>
+        <v>44605.31399305556</v>
       </c>
       <c r="G31" s="2" t="n">
-        <v>44605.33333333334</v>
+        <v>44605.33328703704</v>
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>00:27:00</t>
+          <t>00:27:47</t>
         </is>
       </c>
       <c r="I31" t="inlineStr"/>
@@ -1742,14 +1742,14 @@
         </is>
       </c>
       <c r="F33" s="2" t="n">
-        <v>44605.33680555555</v>
+        <v>44605.33739583333</v>
       </c>
       <c r="G33" s="2" t="n">
-        <v>44605.35416666666</v>
+        <v>44605.3540625</v>
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>00:25:00</t>
+          <t>00:24:00</t>
         </is>
       </c>
       <c r="I33" t="inlineStr"/>
@@ -1818,10 +1818,10 @@
         </is>
       </c>
       <c r="F35" s="2" t="n">
-        <v>44605.35694444444</v>
+        <v>44605.35655092593</v>
       </c>
       <c r="G35" s="2" t="n">
-        <v>44605.375</v>
+        <v>44605.37460648148</v>
       </c>
       <c r="H35" t="inlineStr">
         <is>
@@ -1902,14 +1902,14 @@
         </is>
       </c>
       <c r="F37" s="2" t="n">
-        <v>44605.37847222222</v>
+        <v>44605.37965277778</v>
       </c>
       <c r="G37" s="2" t="n">
-        <v>44605.39583333334</v>
+        <v>44605.39570601852</v>
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>00:25:00</t>
+          <t>00:23:07</t>
         </is>
       </c>
       <c r="I37" t="inlineStr"/>
@@ -1978,14 +1978,14 @@
         </is>
       </c>
       <c r="F39" s="2" t="n">
-        <v>44605.39791666667</v>
+        <v>44605.39859953704</v>
       </c>
       <c r="G39" s="2" t="n">
-        <v>44605.41666666666</v>
+        <v>44605.41658564815</v>
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>00:27:00</t>
+          <t>00:25:54</t>
         </is>
       </c>
       <c r="I39" t="inlineStr"/>
@@ -2058,14 +2058,14 @@
         </is>
       </c>
       <c r="F41" s="2" t="n">
-        <v>44605.42152777778</v>
+        <v>44605.42114583333</v>
       </c>
       <c r="G41" s="2" t="n">
-        <v>44605.45833333334</v>
+        <v>44605.43739583333</v>
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>00:53:00</t>
+          <t>00:23:24</t>
         </is>
       </c>
       <c r="I41" t="inlineStr"/>
@@ -2111,16 +2111,16 @@
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>17607153</v>
+        <v>17734544</v>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>zpr</t>
+          <t>pub</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>Zprávy</t>
+          <t>Leonardo Plus</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
@@ -2130,18 +2130,18 @@
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>Aktuální události doma i ve světě</t>
+          <t>Co dělali naši předci v únoru - o tom je dnešní Leonardo Plus s etnologem Martinem Šimšou. Od raného středověku až do poloviny 20. století byl únor nejtučnější a nejhojnější měsíc a byl spojený nejen s přejídáním, ale hlavně se zábavami a  veselicemi. Proč to tak je a jak je možné, že slovo karneval znají obyvatelé většiny zeměkoule, na to se zeptá Markéta Ševčíková.</t>
         </is>
       </c>
       <c r="F43" s="2" t="n">
-        <v>44605.45833333334</v>
+        <v>44605.43969907407</v>
       </c>
       <c r="G43" s="2" t="n">
-        <v>44605.46247685186</v>
+        <v>44605.45756944444</v>
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>00:05:58</t>
+          <t>00:25:44</t>
         </is>
       </c>
       <c r="I43" t="inlineStr"/>
@@ -2151,16 +2151,16 @@
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>17607154</v>
+        <v>17607153</v>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>pub</t>
+          <t>zpr</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>Téma Plus</t>
+          <t>Zprávy</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
@@ -2170,37 +2170,37 @@
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>Nejpočetnější generační skupinou u nás jsou podle loňského sčítání lidu takzvané Husákovy děti. Co je to za generaci? A co má společného s Gustavem Husákem? O tom si budeme povídat v pořadu Téma Plus, který připravila Veronika Kindlová.</t>
+          <t>Aktuální události doma i ve světě</t>
         </is>
       </c>
       <c r="F44" s="2" t="n">
-        <v>44605.46319444444</v>
+        <v>44605.45833333334</v>
       </c>
       <c r="G44" s="2" t="n">
-        <v>44605.5</v>
+        <v>44605.46247685186</v>
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>00:53:00</t>
+          <t>00:05:58</t>
         </is>
       </c>
       <c r="I44" t="inlineStr"/>
       <c r="J44" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>17607157</v>
+        <v>17607154</v>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>zpr</t>
+          <t>pub</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>Hlavní zprávy</t>
+          <t>Téma Plus</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
@@ -2210,28 +2210,28 @@
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>Zpravodajský souhrn</t>
+          <t>Nejpočetnější generační skupinou u nás jsou podle loňského sčítání lidu takzvané Husákovy děti. Co je to za generaci? A co má společného s Gustavem Husákem? O tom si budeme povídat v pořadu Téma Plus, který připravila Veronika Kindlová.</t>
         </is>
       </c>
       <c r="F45" s="2" t="n">
-        <v>44605.5</v>
+        <v>44605.46247685186</v>
       </c>
       <c r="G45" s="2" t="n">
-        <v>44605.50694444445</v>
+        <v>44605.49991898148</v>
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>00:10:00</t>
+          <t>00:53:55</t>
         </is>
       </c>
       <c r="I45" t="inlineStr"/>
       <c r="J45" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>17607158</v>
+        <v>17607157</v>
       </c>
       <c r="B46" t="inlineStr">
         <is>
@@ -2240,7 +2240,7 @@
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>Hlavní zprávy - rozhovory, komentáře</t>
+          <t>Hlavní zprávy</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
@@ -2250,18 +2250,18 @@
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>Události dne v rozhovorech s aktéry a komentátory</t>
+          <t>Zpravodajský souhrn</t>
         </is>
       </c>
       <c r="F46" s="2" t="n">
+        <v>44605.5</v>
+      </c>
+      <c r="G46" s="2" t="n">
         <v>44605.50694444445</v>
       </c>
-      <c r="G46" s="2" t="n">
-        <v>44605.52083333334</v>
-      </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>00:20:00</t>
+          <t>00:10:00</t>
         </is>
       </c>
       <c r="I46" t="inlineStr"/>
@@ -2271,7 +2271,7 @@
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>17607159</v>
+        <v>17607158</v>
       </c>
       <c r="B47" t="inlineStr">
         <is>
@@ -2280,7 +2280,7 @@
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>Zprávy v půl</t>
+          <t>Hlavní zprávy - rozhovory, komentáře</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
@@ -2288,16 +2288,20 @@
           <t>plus</t>
         </is>
       </c>
-      <c r="E47" t="inlineStr"/>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>Události dne v rozhovorech s aktéry a komentátory</t>
+        </is>
+      </c>
       <c r="F47" s="2" t="n">
+        <v>44605.50694444445</v>
+      </c>
+      <c r="G47" s="2" t="n">
         <v>44605.52083333334</v>
       </c>
-      <c r="G47" s="2" t="n">
-        <v>44605.52369212963</v>
-      </c>
       <c r="H47" t="inlineStr">
         <is>
-          <t>00:04:07</t>
+          <t>00:20:00</t>
         </is>
       </c>
       <c r="I47" t="inlineStr"/>
@@ -2307,16 +2311,16 @@
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>17607160</v>
+        <v>17607159</v>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>pub</t>
+          <t>zpr</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>Za obzorem</t>
+          <t>Zprávy v půl</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
@@ -2324,39 +2328,35 @@
           <t>plus</t>
         </is>
       </c>
-      <c r="E48" t="inlineStr">
-        <is>
-          <t>Válka v Sýrii trvá už 11 let a její konec stále není na obzoru. Jak jsou na tom jednotlivé strany konfliktu a co stojí v cestě jeho ukončení? Pořad připravil Ondřej Himmer.</t>
-        </is>
-      </c>
+      <c r="E48" t="inlineStr"/>
       <c r="F48" s="2" t="n">
-        <v>44605.52291666667</v>
+        <v>44605.52083333334</v>
       </c>
       <c r="G48" s="2" t="n">
-        <v>44605.54166666666</v>
+        <v>44605.52369212963</v>
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>00:27:00</t>
+          <t>00:04:07</t>
         </is>
       </c>
       <c r="I48" t="inlineStr"/>
       <c r="J48" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>17607161</v>
+        <v>17607160</v>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>zpr</t>
+          <t>pub</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>Zprávy</t>
+          <t>Za obzorem</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
@@ -2366,37 +2366,37 @@
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>Aktuální události doma i ve světě</t>
+          <t>Válka v Sýrii trvá už 11 let a její konec stále není na obzoru. Jak jsou na tom jednotlivé strany konfliktu a co stojí v cestě jeho ukončení? Pořad připravil Ondřej Himmer.</t>
         </is>
       </c>
       <c r="F49" s="2" t="n">
-        <v>44605.54166666666</v>
+        <v>44605.52369212963</v>
       </c>
       <c r="G49" s="2" t="n">
-        <v>44605.54726851852</v>
+        <v>44605.54105324074</v>
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>00:08:04</t>
+          <t>00:25:00</t>
         </is>
       </c>
       <c r="I49" t="inlineStr"/>
       <c r="J49" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>17607162</v>
+        <v>17607161</v>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>pub</t>
+          <t>zpr</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>Svět ve 20 minutách</t>
+          <t>Zprávy</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
@@ -2406,41 +2406,37 @@
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>Ruské elity pochybují o možnosti invaze na Ukrajinu. Krajní variantu zatím příliš nezmiňuje ani státní propaganda. - Klimatické změny komplikují přítomnost i budoucnost zimních olympiád. - Jaký smysl má americké embargo vůči Kubě 60 let od jeho zavedení? - Otroctví v zemích Perského zálivu oficiálně neexistuje. Neetické pracovní podmínky ale ano. - A v Norsku se pokoušejí o udržitelný způsob těžby digitálních měn. Dnešní výběr z komentářů, analýz a reportáží zahraničních médií připravila Magdaléna Fajtová.</t>
+          <t>Aktuální události doma i ve světě</t>
         </is>
       </c>
       <c r="F50" s="2" t="n">
-        <v>44605.54513888889</v>
+        <v>44605.54166666666</v>
       </c>
       <c r="G50" s="2" t="n">
-        <v>44605.5625</v>
+        <v>44605.54726851852</v>
       </c>
       <c r="H50" t="inlineStr">
         <is>
-          <t>00:25:00</t>
-        </is>
-      </c>
-      <c r="I50" t="inlineStr">
-        <is>
-          <t>({'id': 5409867, 'name': 'Magdaléna Fajtová'},)</t>
-        </is>
-      </c>
+          <t>00:08:04</t>
+        </is>
+      </c>
+      <c r="I50" t="inlineStr"/>
       <c r="J50" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>17607163</v>
+        <v>17607162</v>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>zpr</t>
+          <t>pub</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>Zprávy v půl</t>
+          <t>Svět ve 20 minutách</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
@@ -2448,35 +2444,43 @@
           <t>plus</t>
         </is>
       </c>
-      <c r="E51" t="inlineStr"/>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>Ruské elity pochybují o možnosti invaze na Ukrajinu. Krajní variantu zatím příliš nezmiňuje ani státní propaganda. - Klimatické změny komplikují přítomnost i budoucnost zimních olympiád. - Jaký smysl má americké embargo vůči Kubě 60 let od jeho zavedení? - Otroctví v zemích Perského zálivu oficiálně neexistuje. Neetické pracovní podmínky ale ano. - A v Norsku se pokoušejí o udržitelný způsob těžby digitálních měn. Dnešní výběr z komentářů, analýz a reportáží zahraničních médií připravila Magdaléna Fajtová.</t>
+        </is>
+      </c>
       <c r="F51" s="2" t="n">
-        <v>44605.5625</v>
+        <v>44605.54726851852</v>
       </c>
       <c r="G51" s="2" t="n">
-        <v>44605.56473379629</v>
+        <v>44605.56222222222</v>
       </c>
       <c r="H51" t="inlineStr">
         <is>
-          <t>00:03:13</t>
-        </is>
-      </c>
-      <c r="I51" t="inlineStr"/>
+          <t>00:21:32</t>
+        </is>
+      </c>
+      <c r="I51" t="inlineStr">
+        <is>
+          <t>({'id': 5409867, 'name': 'Magdaléna Fajtová'},)</t>
+        </is>
+      </c>
       <c r="J51" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>17607164</v>
+        <v>17607163</v>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>pub</t>
+          <t>zpr</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>Názory a argumenty</t>
+          <t>Zprávy v půl</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
@@ -2484,20 +2488,16 @@
           <t>plus</t>
         </is>
       </c>
-      <c r="E52" t="inlineStr">
-        <is>
-          <t>Den pohledem renomovaných komentátorů</t>
-        </is>
-      </c>
+      <c r="E52" t="inlineStr"/>
       <c r="F52" s="2" t="n">
-        <v>44605.56527777778</v>
+        <v>44605.5625</v>
       </c>
       <c r="G52" s="2" t="n">
-        <v>44605.58333333334</v>
+        <v>44605.56473379629</v>
       </c>
       <c r="H52" t="inlineStr">
         <is>
-          <t>00:26:00</t>
+          <t>00:03:13</t>
         </is>
       </c>
       <c r="I52" t="inlineStr"/>
@@ -2507,16 +2507,16 @@
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>17607165</v>
+        <v>17607164</v>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>zpr</t>
+          <t>pub</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>Zprávy</t>
+          <t>Názory a argumenty</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
@@ -2526,18 +2526,18 @@
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>Aktuální události doma i ve světě</t>
+          <t>Den pohledem renomovaných komentátorů</t>
         </is>
       </c>
       <c r="F53" s="2" t="n">
-        <v>44605.58333333334</v>
+        <v>44605.56473379629</v>
       </c>
       <c r="G53" s="2" t="n">
-        <v>44605.58755787037</v>
+        <v>44605.5830324074</v>
       </c>
       <c r="H53" t="inlineStr">
         <is>
-          <t>00:06:05</t>
+          <t>00:26:21</t>
         </is>
       </c>
       <c r="I53" t="inlineStr"/>
@@ -2547,16 +2547,16 @@
     </row>
     <row r="54">
       <c r="A54" t="n">
-        <v>17607166</v>
+        <v>17607165</v>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>pub</t>
+          <t>zpr</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>Reportáže zahraničních zpravodajů</t>
+          <t>Zprávy</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
@@ -2566,18 +2566,18 @@
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>Se zahraničními zpravodaji Českého rozhlasu se tentokrát podíváme do Pekingu, dozvíte se co byl zatím největší mimosportovní zážitek olympiády. Připomeneme tragédii Ďatlovovy expedice, která se stala na severním Uralu v noci z 1. na 2. února 1959 a dodnes je obestřená tajemstvím. Představíme odrůdu jablek ze kterých se ve Virginii vyrábí cider, ale jíst by se nedala a na závěr se v reportáži vypravíme na východní Ukrajinu, abychom zjistili, jak je postaráno o psy a kočky kteří přišli o své majitele v důsledku války. Pořadem provází Jitka Malá.</t>
+          <t>Aktuální události doma i ve světě</t>
         </is>
       </c>
       <c r="F54" s="2" t="n">
-        <v>44605.58680555555</v>
+        <v>44605.58333333334</v>
       </c>
       <c r="G54" s="2" t="n">
-        <v>44605.60416666666</v>
+        <v>44605.58755787037</v>
       </c>
       <c r="H54" t="inlineStr">
         <is>
-          <t>00:25:00</t>
+          <t>00:06:05</t>
         </is>
       </c>
       <c r="I54" t="inlineStr"/>
@@ -2587,16 +2587,16 @@
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>17607167</v>
+        <v>17607166</v>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>zpr</t>
+          <t>pub</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>Zprávy v půl</t>
+          <t>Reportáže zahraničních zpravodajů</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
@@ -2604,16 +2604,20 @@
           <t>plus</t>
         </is>
       </c>
-      <c r="E55" t="inlineStr"/>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>Se zahraničními zpravodaji Českého rozhlasu se tentokrát podíváme do Pekingu, dozvíte se co byl zatím největší mimosportovní zážitek olympiády. Připomeneme tragédii Ďatlovovy expedice, která se stala na severním Uralu v noci z 1. na 2. února 1959 a dodnes je obestřená tajemstvím. Představíme odrůdu jablek ze kterých se ve Virginii vyrábí cider, ale jíst by se nedala a na závěr se v reportáži vypravíme na východní Ukrajinu, abychom zjistili, jak je postaráno o psy a kočky kteří přišli o své majitele v důsledku války. Pořadem provází Jitka Malá.</t>
+        </is>
+      </c>
       <c r="F55" s="2" t="n">
-        <v>44605.60416666666</v>
+        <v>44605.58755787037</v>
       </c>
       <c r="G55" s="2" t="n">
-        <v>44605.6066087963</v>
+        <v>44605.60393518519</v>
       </c>
       <c r="H55" t="inlineStr">
         <is>
-          <t>00:03:31</t>
+          <t>00:23:35</t>
         </is>
       </c>
       <c r="I55" t="inlineStr"/>
@@ -2623,16 +2627,16 @@
     </row>
     <row r="56">
       <c r="A56" t="n">
-        <v>17607168</v>
+        <v>17607167</v>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>pub</t>
+          <t>zpr</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>Dokument</t>
+          <t>Zprávy v půl</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
@@ -2640,39 +2644,35 @@
           <t>plus</t>
         </is>
       </c>
-      <c r="E56" t="inlineStr">
-        <is>
-          <t xml:space="preserve">V dokumentární sérii Té noci pes neštěkal se opět vrátíme do divokých devadesátých let.  Manželka mafiánského bose Marie Bělová vypráví příběh svého života s jedním z nejvlivnějších bosů podsvětí. Druhá část trilogie  připomíná vztahy romského podnikatele Antonína Běly s kmotrem Františkem Mrázkem. Natočila Broňa Janečková. Dokument ocenila porota na soutěži Prix Bohemia Radio.  </t>
-        </is>
-      </c>
+      <c r="E56" t="inlineStr"/>
       <c r="F56" s="2" t="n">
-        <v>44605.60694444444</v>
+        <v>44605.60416666666</v>
       </c>
       <c r="G56" s="2" t="n">
-        <v>44605.625</v>
+        <v>44605.6066087963</v>
       </c>
       <c r="H56" t="inlineStr">
         <is>
-          <t>00:26:00</t>
+          <t>00:03:31</t>
         </is>
       </c>
       <c r="I56" t="inlineStr"/>
       <c r="J56" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>17607169</v>
+        <v>17607168</v>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>zpr</t>
+          <t>pub</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>Zprávy</t>
+          <t>Dokument</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
@@ -2682,37 +2682,37 @@
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>Aktuální události doma i ve světě</t>
+          <t xml:space="preserve">V dokumentární sérii Té noci pes neštěkal se opět vrátíme do divokých devadesátých let.  Manželka mafiánského bose Marie Bělová vypráví příběh svého života s jedním z nejvlivnějších bosů podsvětí. Druhá část trilogie  připomíná vztahy romského podnikatele Antonína Běly s kmotrem Františkem Mrázkem. Natočila Broňa Janečková. Dokument ocenila porota na soutěži Prix Bohemia Radio.  </t>
         </is>
       </c>
       <c r="F57" s="2" t="n">
-        <v>44605.625</v>
+        <v>44605.60684027777</v>
       </c>
       <c r="G57" s="2" t="n">
-        <v>44605.62986111111</v>
+        <v>44605.6246875</v>
       </c>
       <c r="H57" t="inlineStr">
         <is>
-          <t>00:07:00</t>
+          <t>00:25:42</t>
         </is>
       </c>
       <c r="I57" t="inlineStr"/>
       <c r="J57" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="n">
-        <v>17607170</v>
+        <v>17607169</v>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>pub</t>
+          <t>zpr</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>Odpolední Plus</t>
+          <t>Zprávy</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
@@ -2722,41 +2722,37 @@
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>Frank Walter Steinmeier se stal německým prezidentem i na druhé volební období. Díky čemu je tak oblíbený? Zítra se budou děti ve školách naposledy testovat na koronavirus. Proč testování končí? A co budou školy dělat s testy, které jim zbydou? Shrneme dění na filmovém festivalu Berlinale, ohlédneme se třiceti lety internetu v Česku a přineseme příběh Gentlemana silnic. Firmy v Česku stále častěji využívají služeb takzvaných headhuntrů. Nejčastěji je společnosti využívají při hledání lidí do středního a vyššího managementu. Proč? Přiblížíme vám olympijské vesnice na letošních zimních hrách v Pekingu. Proč v nich není ta správná atmosféra, na kterou jsou sportovci i jejich doprovod z minulých olympiád zvyklí? Latinská Amerika se stává novou skládkou plastového odpadu ze Spojených států. Která země je na tom nejhůře? Moderuje Renata Kropáčková.</t>
+          <t>Aktuální události doma i ve světě</t>
         </is>
       </c>
       <c r="F58" s="2" t="n">
-        <v>44605.62986111111</v>
+        <v>44605.625</v>
       </c>
       <c r="G58" s="2" t="n">
-        <v>44605.66666666666</v>
+        <v>44605.62854166667</v>
       </c>
       <c r="H58" t="inlineStr">
         <is>
-          <t>00:53:00</t>
-        </is>
-      </c>
-      <c r="I58" t="inlineStr">
-        <is>
-          <t>({'id': 5003277, 'name': 'Renata Kropáčková'},)</t>
-        </is>
-      </c>
+          <t>00:05:06</t>
+        </is>
+      </c>
+      <c r="I58" t="inlineStr"/>
       <c r="J58" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="n">
-        <v>17607171</v>
+        <v>17607170</v>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>zpr</t>
+          <t>pub</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>Zprávy v půl</t>
+          <t>Odpolední Plus</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
@@ -2764,26 +2760,34 @@
           <t>plus</t>
         </is>
       </c>
-      <c r="E59" t="inlineStr"/>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>Frank Walter Steinmeier se stal německým prezidentem i na druhé volební období. Díky čemu je tak oblíbený? Zítra se budou děti ve školách naposledy testovat na koronavirus. Proč testování končí? A co budou školy dělat s testy, které jim zbydou? Shrneme dění na filmovém festivalu Berlinale, ohlédneme se třiceti lety internetu v Česku a přineseme příběh Gentlemana silnic. Firmy v Česku stále častěji využívají služeb takzvaných headhuntrů. Nejčastěji je společnosti využívají při hledání lidí do středního a vyššího managementu. Proč? Přiblížíme vám olympijské vesnice na letošních zimních hrách v Pekingu. Proč v nich není ta správná atmosféra, na kterou jsou sportovci i jejich doprovod z minulých olympiád zvyklí? Latinská Amerika se stává novou skládkou plastového odpadu ze Spojených států. Která země je na tom nejhůře? Moderuje Renata Kropáčková.</t>
+        </is>
+      </c>
       <c r="F59" s="2" t="n">
-        <v>44605.64583333334</v>
+        <v>44605.62854166667</v>
       </c>
       <c r="G59" s="2" t="n">
-        <v>44605.64791666667</v>
+        <v>44605.66666666666</v>
       </c>
       <c r="H59" t="inlineStr">
         <is>
-          <t>00:03:00</t>
-        </is>
-      </c>
-      <c r="I59" t="inlineStr"/>
+          <t>00:54:54</t>
+        </is>
+      </c>
+      <c r="I59" t="inlineStr">
+        <is>
+          <t>({'id': 5003277, 'name': 'Renata Kropáčková'},)</t>
+        </is>
+      </c>
       <c r="J59" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="n">
-        <v>17607172</v>
+        <v>17607171</v>
       </c>
       <c r="B60" t="inlineStr">
         <is>
@@ -2792,7 +2796,7 @@
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>Zprávy</t>
+          <t>Zprávy v půl</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
@@ -2800,20 +2804,16 @@
           <t>plus</t>
         </is>
       </c>
-      <c r="E60" t="inlineStr">
-        <is>
-          <t>Aktuální události doma i ve světě</t>
-        </is>
-      </c>
+      <c r="E60" t="inlineStr"/>
       <c r="F60" s="2" t="n">
-        <v>44605.66666666666</v>
+        <v>44605.64583333334</v>
       </c>
       <c r="G60" s="2" t="n">
-        <v>44605.67152777778</v>
+        <v>44605.64832175926</v>
       </c>
       <c r="H60" t="inlineStr">
         <is>
-          <t>00:07:00</t>
+          <t>00:03:35</t>
         </is>
       </c>
       <c r="I60" t="inlineStr"/>
@@ -2823,16 +2823,16 @@
     </row>
     <row r="61">
       <c r="A61" t="n">
-        <v>17607173</v>
+        <v>17607172</v>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>pub</t>
+          <t>zpr</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>Odpolední Plus</t>
+          <t>Zprávy</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
@@ -2842,41 +2842,37 @@
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>Hnutí ANO volilo o víkendu nové vedení - bývalý premiér Andrej Babiš znovu obhájil pozici předsedy hnutí ANO. Co na sněmu zaznělo, jaký dojem po něm zůstal? Ministerstvo zahraničí dnes znovu varovalo před cestami na Ukrajinu kvůli napjaté situaci na hranicích s Ruskem. Připravují se Ukrajinci na útok na Kyjev, k němuž by podle západních zpravodajců mohlo dojít v tomto týdnu? V Thajsku, jinak oblíbené turistické destinaci, je jedna z největších světových skládek elektrošrotu. Čeští vědci zkoumají, jak moc to škodí místním lidem i přírodě? Moderuje Renata Kropáčková.</t>
+          <t>Aktuální události doma i ve světě</t>
         </is>
       </c>
       <c r="F61" s="2" t="n">
-        <v>44605.67152777778</v>
+        <v>44605.66666666666</v>
       </c>
       <c r="G61" s="2" t="n">
-        <v>44605.6875</v>
+        <v>44605.67120370371</v>
       </c>
       <c r="H61" t="inlineStr">
         <is>
-          <t>00:23:00</t>
-        </is>
-      </c>
-      <c r="I61" t="inlineStr">
-        <is>
-          <t>({'id': 5003277, 'name': 'Renata Kropáčková'},)</t>
-        </is>
-      </c>
+          <t>00:06:32</t>
+        </is>
+      </c>
+      <c r="I61" t="inlineStr"/>
       <c r="J61" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="n">
-        <v>17607174</v>
+        <v>17607173</v>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>zpr</t>
+          <t>pub</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>Zprávy v půl</t>
+          <t>Odpolední Plus</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
@@ -2884,35 +2880,43 @@
           <t>plus</t>
         </is>
       </c>
-      <c r="E62" t="inlineStr"/>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>Hnutí ANO volilo o víkendu nové vedení - bývalý premiér Andrej Babiš znovu obhájil pozici předsedy hnutí ANO. Co na sněmu zaznělo, jaký dojem po něm zůstal? Ministerstvo zahraničí dnes znovu varovalo před cestami na Ukrajinu kvůli napjaté situaci na hranicích s Ruskem. Připravují se Ukrajinci na útok na Kyjev, k němuž by podle západních zpravodajců mohlo dojít v tomto týdnu? V Thajsku, jinak oblíbené turistické destinaci, je jedna z největších světových skládek elektrošrotu. Čeští vědci zkoumají, jak moc to škodí místním lidem i přírodě? Moderuje Renata Kropáčková.</t>
+        </is>
+      </c>
       <c r="F62" s="2" t="n">
+        <v>44605.67120370371</v>
+      </c>
+      <c r="G62" s="2" t="n">
         <v>44605.6875</v>
       </c>
-      <c r="G62" s="2" t="n">
-        <v>44605.68984953704</v>
-      </c>
       <c r="H62" t="inlineStr">
         <is>
-          <t>00:03:23</t>
-        </is>
-      </c>
-      <c r="I62" t="inlineStr"/>
+          <t>00:23:28</t>
+        </is>
+      </c>
+      <c r="I62" t="inlineStr">
+        <is>
+          <t>({'id': 5003277, 'name': 'Renata Kropáčková'},)</t>
+        </is>
+      </c>
       <c r="J62" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="n">
-        <v>17607175</v>
+        <v>17607174</v>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>pub</t>
+          <t>zpr</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>Evropa Plus</t>
+          <t>Zprávy v půl</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
@@ -2920,20 +2924,16 @@
           <t>plus</t>
         </is>
       </c>
-      <c r="E63" t="inlineStr">
-        <is>
-          <t>Slovensko ratifikovalo dohodu o obranné spolupráci se Spojenými státy. Podpisu dokumentu předcházela letitá vyjednávání několika vládních kabinetů, přesto se ani jednomu z nich nepodařilo čelit dezinformacím, které vyvolaly ve společnosti napětí a nedůvěru k působení americké armády. O tom je dnešní Evropa Plus. Připravila jí Pavlína Nečásková.</t>
-        </is>
-      </c>
+      <c r="E63" t="inlineStr"/>
       <c r="F63" s="2" t="n">
-        <v>44605.69027777778</v>
+        <v>44605.6875</v>
       </c>
       <c r="G63" s="2" t="n">
-        <v>44605.70833333334</v>
+        <v>44605.68984953704</v>
       </c>
       <c r="H63" t="inlineStr">
         <is>
-          <t>00:26:00</t>
+          <t>00:03:23</t>
         </is>
       </c>
       <c r="I63" t="inlineStr"/>
@@ -2943,16 +2943,16 @@
     </row>
     <row r="64">
       <c r="A64" t="n">
-        <v>17607177</v>
+        <v>17607175</v>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>zpr</t>
+          <t>pub</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>Zprávy</t>
+          <t>Evropa Plus</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
@@ -2962,18 +2962,18 @@
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>Aktuální události doma i ve světě</t>
+          <t>Slovensko ratifikovalo dohodu o obranné spolupráci se Spojenými státy. Podpisu dokumentu předcházela letitá vyjednávání několika vládních kabinetů, přesto se ani jednomu z nich nepodařilo čelit dezinformacím, které vyvolaly ve společnosti napětí a nedůvěru k působení americké armády. O tom je dnešní Evropa Plus. Připravila jí Pavlína Nečásková.</t>
         </is>
       </c>
       <c r="F64" s="2" t="n">
-        <v>44605.70833333334</v>
+        <v>44605.68984953704</v>
       </c>
       <c r="G64" s="2" t="n">
-        <v>44605.71223379629</v>
+        <v>44605.70763888889</v>
       </c>
       <c r="H64" t="inlineStr">
         <is>
-          <t>00:05:37</t>
+          <t>00:25:37</t>
         </is>
       </c>
       <c r="I64" t="inlineStr"/>
@@ -2983,16 +2983,16 @@
     </row>
     <row r="65">
       <c r="A65" t="n">
-        <v>17607176</v>
+        <v>17607177</v>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>pub</t>
+          <t>zpr</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>Odpolední Plus</t>
+          <t>Zprávy</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
@@ -3002,41 +3002,37 @@
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>Co jsou to vlčí hlídky a proč jsou potřeba? Španělští důchodci uspěli se svou peticí proti bankám a jejich digitalizaci. V čem se cítili znevýhodnění? Vědci zjistili, jak se ve starověkém Egyptě zacházelo s neposlušnými žáky. Podle čeho usoudili, že i tehdy museli některé věty opisovat stokrát? Moderuje Renata Kropáčková.</t>
+          <t>Aktuální události doma i ve světě</t>
         </is>
       </c>
       <c r="F65" s="2" t="n">
+        <v>44605.70833333334</v>
+      </c>
+      <c r="G65" s="2" t="n">
         <v>44605.71223379629</v>
       </c>
-      <c r="G65" s="2" t="n">
-        <v>44605.72916666666</v>
-      </c>
       <c r="H65" t="inlineStr">
         <is>
-          <t>00:24:23</t>
-        </is>
-      </c>
-      <c r="I65" t="inlineStr">
-        <is>
-          <t>({'id': 5003277, 'name': 'Renata Kropáčková'},)</t>
-        </is>
-      </c>
+          <t>00:05:37</t>
+        </is>
+      </c>
+      <c r="I65" t="inlineStr"/>
       <c r="J65" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="n">
-        <v>17607178</v>
+        <v>17607176</v>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>zpr</t>
+          <t>pub</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>Zprávy v půl</t>
+          <t>Odpolední Plus</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
@@ -3044,35 +3040,43 @@
           <t>plus</t>
         </is>
       </c>
-      <c r="E66" t="inlineStr"/>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>Co jsou to vlčí hlídky a proč jsou potřeba? Španělští důchodci uspěli se svou peticí proti bankám a jejich digitalizaci. V čem se cítili znevýhodnění? Vědci zjistili, jak se ve starověkém Egyptě zacházelo s neposlušnými žáky. Podle čeho usoudili, že i tehdy museli některé věty opisovat stokrát? Moderuje Renata Kropáčková.</t>
+        </is>
+      </c>
       <c r="F66" s="2" t="n">
+        <v>44605.71223379629</v>
+      </c>
+      <c r="G66" s="2" t="n">
         <v>44605.72916666666</v>
       </c>
-      <c r="G66" s="2" t="n">
-        <v>44605.73181712963</v>
-      </c>
       <c r="H66" t="inlineStr">
         <is>
-          <t>00:03:49</t>
-        </is>
-      </c>
-      <c r="I66" t="inlineStr"/>
+          <t>00:24:23</t>
+        </is>
+      </c>
+      <c r="I66" t="inlineStr">
+        <is>
+          <t>({'id': 5003277, 'name': 'Renata Kropáčková'},)</t>
+        </is>
+      </c>
       <c r="J66" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="n">
-        <v>17607179</v>
+        <v>17607178</v>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>pub</t>
+          <t>zpr</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>Zaostřeno</t>
+          <t>Zprávy v půl</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
@@ -3080,20 +3084,16 @@
           <t>plus</t>
         </is>
       </c>
-      <c r="E67" t="inlineStr">
-        <is>
-          <t>Vodní elektrárny vyrobí v Česku jen asi 4,5 procenta elektrické energie. Jak se s tímto čistým zdrojem počítá do budoucna v rámci energetického mixu? Využívá stát veškerý možný potenciál vodní energie? A komu a proč mohou vodní elektrárny vadit? Téma pro pořad Zaostřeno a Víta Pohanku.</t>
-        </is>
-      </c>
+      <c r="E67" t="inlineStr"/>
       <c r="F67" s="2" t="n">
-        <v>44605.73194444444</v>
+        <v>44605.72916666666</v>
       </c>
       <c r="G67" s="2" t="n">
-        <v>44605.75</v>
+        <v>44605.73181712963</v>
       </c>
       <c r="H67" t="inlineStr">
         <is>
-          <t>00:26:00</t>
+          <t>00:03:49</t>
         </is>
       </c>
       <c r="I67" t="inlineStr"/>
@@ -3103,16 +3103,16 @@
     </row>
     <row r="68">
       <c r="A68" t="n">
-        <v>17607180</v>
+        <v>17607179</v>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>zpr</t>
+          <t>pub</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>Hlavní zprávy</t>
+          <t>Zaostřeno</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
@@ -3122,18 +3122,18 @@
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>Zpravodajský souhrn</t>
+          <t>Vodní elektrárny vyrobí v Česku jen asi 4,5 procenta elektrické energie. Jak se s tímto čistým zdrojem počítá do budoucna v rámci energetického mixu? Využívá stát veškerý možný potenciál vodní energie? A komu a proč mohou vodní elektrárny vadit? Téma pro pořad Zaostřeno a Víta Pohanku.</t>
         </is>
       </c>
       <c r="F68" s="2" t="n">
-        <v>44605.75</v>
+        <v>44605.73181712963</v>
       </c>
       <c r="G68" s="2" t="n">
-        <v>44605.75696759259</v>
+        <v>44605.74927083333</v>
       </c>
       <c r="H68" t="inlineStr">
         <is>
-          <t>00:10:02</t>
+          <t>00:25:08</t>
         </is>
       </c>
       <c r="I68" t="inlineStr"/>
@@ -3143,16 +3143,16 @@
     </row>
     <row r="69">
       <c r="A69" t="n">
-        <v>17607181</v>
+        <v>17607180</v>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>pub</t>
+          <t>zpr</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>Čekání na prezidenta</t>
+          <t>Hlavní zprávy</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
@@ -3162,18 +3162,18 @@
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>Co má společného s prezidentem nezodpovědný monarcha, to budou řešit  diskutující v další epizodě podcastu Čekání na prezidenta. Uslyšíte ale také kdo bude podle Miloše Zemana těžká váha a dozvíte se, proč a komu bude chybět kandidatura Miroslava Kalouska. Své názory, postoje zkušenosti i znalosti prezentují filozofka Tereza Matějčková, ústavní právník Jan Kysela a rozhlasoví novináři Petr Nováček a Jan Pokorný.</t>
+          <t>Zpravodajský souhrn</t>
         </is>
       </c>
       <c r="F69" s="2" t="n">
-        <v>44605.75694444445</v>
+        <v>44605.75</v>
       </c>
       <c r="G69" s="2" t="n">
-        <v>44605.78472222222</v>
+        <v>44605.75696759259</v>
       </c>
       <c r="H69" t="inlineStr">
         <is>
-          <t>00:40:00</t>
+          <t>00:10:02</t>
         </is>
       </c>
       <c r="I69" t="inlineStr"/>
@@ -3183,7 +3183,7 @@
     </row>
     <row r="70">
       <c r="A70" t="n">
-        <v>17607183</v>
+        <v>17607181</v>
       </c>
       <c r="B70" t="inlineStr">
         <is>
@@ -3192,7 +3192,7 @@
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>Názory a argumenty</t>
+          <t>Čekání na prezidenta</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
@@ -3202,18 +3202,18 @@
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>Den pohledem renomovaných komentátorů</t>
+          <t>Co má společného s prezidentem nezodpovědný monarcha, to budou řešit  diskutující v další epizodě podcastu Čekání na prezidenta. Uslyšíte ale také kdo bude podle Miloše Zemana těžká váha a dozvíte se, proč a komu bude chybět kandidatura Miroslava Kalouska. Své názory, postoje zkušenosti i znalosti prezentují filozofka Tereza Matějčková, ústavní právník Jan Kysela a rozhlasoví novináři Petr Nováček a Jan Pokorný.</t>
         </is>
       </c>
       <c r="F70" s="2" t="n">
-        <v>44605.78472222222</v>
+        <v>44605.75707175926</v>
       </c>
       <c r="G70" s="2" t="n">
-        <v>44605.79166666666</v>
+        <v>44605.78533564815</v>
       </c>
       <c r="H70" t="inlineStr">
         <is>
-          <t>00:10:00</t>
+          <t>00:40:42</t>
         </is>
       </c>
       <c r="I70" t="inlineStr"/>
@@ -3223,16 +3223,16 @@
     </row>
     <row r="71">
       <c r="A71" t="n">
-        <v>17607184</v>
+        <v>17607183</v>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>zpr</t>
+          <t>pub</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>Zprávy</t>
+          <t>Názory a argumenty</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
@@ -3242,18 +3242,18 @@
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>Aktuální události doma i ve světě</t>
+          <t>Den pohledem renomovaných komentátorů</t>
         </is>
       </c>
       <c r="F71" s="2" t="n">
-        <v>44605.79166666666</v>
+        <v>44605.78533564815</v>
       </c>
       <c r="G71" s="2" t="n">
-        <v>44605.79542824074</v>
+        <v>44605.79079861111</v>
       </c>
       <c r="H71" t="inlineStr">
         <is>
-          <t>00:05:25</t>
+          <t>00:07:52</t>
         </is>
       </c>
       <c r="I71" t="inlineStr"/>
@@ -3263,16 +3263,16 @@
     </row>
     <row r="72">
       <c r="A72" t="n">
-        <v>17607185</v>
+        <v>17607184</v>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>pub</t>
+          <t>zpr</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>Svět ve 20 minutách</t>
+          <t>Zprávy</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
@@ -3282,41 +3282,37 @@
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>Ruské elity pochybují o možnosti invaze na Ukrajinu. Krajní variantu zatím příliš nezmiňuje ani státní propaganda. - Klimatické změny komplikují přítomnost i budoucnost zimních olympiád. - Jaký smysl má americké embargo vůči Kubě 60 let od jeho zavedení? - Otroctví v zemích Perského zálivu oficiálně neexistuje. Neetické pracovní podmínky ale ano. - A v Norsku se pokoušejí o udržitelný způsob těžby digitálních měn. Dnešní výběr z komentářů, analýz a reportáží zahraničních médií připravila Magdaléna Fajtová.</t>
+          <t>Aktuální události doma i ve světě</t>
         </is>
       </c>
       <c r="F72" s="2" t="n">
-        <v>44605.79652777778</v>
+        <v>44605.79166666666</v>
       </c>
       <c r="G72" s="2" t="n">
-        <v>44605.8125</v>
+        <v>44605.79542824074</v>
       </c>
       <c r="H72" t="inlineStr">
         <is>
-          <t>00:23:00</t>
-        </is>
-      </c>
-      <c r="I72" t="inlineStr">
-        <is>
-          <t>({'id': 5409867, 'name': 'Magdaléna Fajtová'},)</t>
-        </is>
-      </c>
+          <t>00:05:25</t>
+        </is>
+      </c>
+      <c r="I72" t="inlineStr"/>
       <c r="J72" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="n">
-        <v>17607186</v>
+        <v>17607185</v>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>zpr</t>
+          <t>pub</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>Zprávy v půl</t>
+          <t>Svět ve 20 minutách</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
@@ -3324,35 +3320,43 @@
           <t>plus</t>
         </is>
       </c>
-      <c r="E73" t="inlineStr"/>
+      <c r="E73" t="inlineStr">
+        <is>
+          <t>Ruské elity pochybují o možnosti invaze na Ukrajinu. Krajní variantu zatím příliš nezmiňuje ani státní propaganda. - Klimatické změny komplikují přítomnost i budoucnost zimních olympiád. - Jaký smysl má americké embargo vůči Kubě 60 let od jeho zavedení? - Otroctví v zemích Perského zálivu oficiálně neexistuje. Neetické pracovní podmínky ale ano. - A v Norsku se pokoušejí o udržitelný způsob těžby digitálních měn. Dnešní výběr z komentářů, analýz a reportáží zahraničních médií připravila Magdaléna Fajtová.</t>
+        </is>
+      </c>
       <c r="F73" s="2" t="n">
-        <v>44605.81243055555</v>
+        <v>44605.79553240741</v>
       </c>
       <c r="G73" s="2" t="n">
-        <v>44605.81427083333</v>
+        <v>44605.81048611111</v>
       </c>
       <c r="H73" t="inlineStr">
         <is>
-          <t>00:02:39</t>
-        </is>
-      </c>
-      <c r="I73" t="inlineStr"/>
+          <t>00:21:32</t>
+        </is>
+      </c>
+      <c r="I73" t="inlineStr">
+        <is>
+          <t>({'id': 5409867, 'name': 'Magdaléna Fajtová'},)</t>
+        </is>
+      </c>
       <c r="J73" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="n">
-        <v>17607187</v>
+        <v>17607186</v>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>pub</t>
+          <t>zpr</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>Za obzorem</t>
+          <t>Zprávy v půl</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
@@ -3360,39 +3364,35 @@
           <t>plus</t>
         </is>
       </c>
-      <c r="E74" t="inlineStr">
-        <is>
-          <t>Válka v Sýrii trvá už 11 let a její konec stále není na obzoru. Jak jsou na tom jednotlivé strany konfliktu a co stojí v cestě jeho ukončení? Pořad připravil Ondřej Himmer.</t>
-        </is>
-      </c>
+      <c r="E74" t="inlineStr"/>
       <c r="F74" s="2" t="n">
-        <v>44605.81458333333</v>
+        <v>44605.81243055555</v>
       </c>
       <c r="G74" s="2" t="n">
-        <v>44605.83333333334</v>
+        <v>44605.81427083333</v>
       </c>
       <c r="H74" t="inlineStr">
         <is>
-          <t>00:27:00</t>
+          <t>00:02:39</t>
         </is>
       </c>
       <c r="I74" t="inlineStr"/>
       <c r="J74" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="n">
-        <v>17607188</v>
+        <v>17607187</v>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>zpr</t>
+          <t>pub</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>Zprávy</t>
+          <t>Za obzorem</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
@@ -3402,37 +3402,37 @@
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>Aktuální události doma i ve světě</t>
+          <t>Válka v Sýrii trvá už 11 let a její konec stále není na obzoru. Jak jsou na tom jednotlivé strany konfliktu a co stojí v cestě jeho ukončení? Pořad připravil Ondřej Himmer.</t>
         </is>
       </c>
       <c r="F75" s="2" t="n">
-        <v>44605.83333333334</v>
+        <v>44605.81435185186</v>
       </c>
       <c r="G75" s="2" t="n">
-        <v>44605.8374537037</v>
+        <v>44605.83171296296</v>
       </c>
       <c r="H75" t="inlineStr">
         <is>
-          <t>00:05:56</t>
+          <t>00:25:00</t>
         </is>
       </c>
       <c r="I75" t="inlineStr"/>
       <c r="J75" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="n">
-        <v>17607189</v>
+        <v>17607188</v>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>pub</t>
+          <t>zpr</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>Příběhy 20. století</t>
+          <t>Zprávy</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
@@ -3442,18 +3442,18 @@
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>V dnešních Příbězích 20. století se bude Adam Drda věnovat osudům známého českého právníka a někdejšího předsedy Nejvyššího správního soudu Josefa Baxy. Narodil se v roce 1959 a začal soudit už v komunistickém režimu ? patří k několika málo soudcům, kteří za pozdního totalitarismu osvobodili obžalované disidenty.</t>
+          <t>Aktuální události doma i ve světě</t>
         </is>
       </c>
       <c r="F76" s="2" t="n">
-        <v>44605.83680555555</v>
+        <v>44605.83333333334</v>
       </c>
       <c r="G76" s="2" t="n">
-        <v>44605.875</v>
+        <v>44605.8374537037</v>
       </c>
       <c r="H76" t="inlineStr">
         <is>
-          <t>00:55:00</t>
+          <t>00:05:56</t>
         </is>
       </c>
       <c r="I76" t="inlineStr"/>
@@ -3463,16 +3463,16 @@
     </row>
     <row r="77">
       <c r="A77" t="n">
-        <v>17607190</v>
+        <v>17607189</v>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>zpr</t>
+          <t>pub</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>Zprávy v půl</t>
+          <t>Příběhy 20. století</t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
@@ -3480,16 +3480,20 @@
           <t>plus</t>
         </is>
       </c>
-      <c r="E77" t="inlineStr"/>
+      <c r="E77" t="inlineStr">
+        <is>
+          <t>V dnešních Příbězích 20. století se bude Adam Drda věnovat osudům známého českého právníka a někdejšího předsedy Nejvyššího správního soudu Josefa Baxy. Narodil se v roce 1959 a začal soudit už v komunistickém režimu ? patří k několika málo soudcům, kteří za pozdního totalitarismu osvobodili obžalované disidenty.</t>
+        </is>
+      </c>
       <c r="F77" s="2" t="n">
-        <v>44605.85416666666</v>
+        <v>44605.8374537037</v>
       </c>
       <c r="G77" s="2" t="n">
-        <v>44605.85672453704</v>
+        <v>44605.85412037037</v>
       </c>
       <c r="H77" t="inlineStr">
         <is>
-          <t>00:03:41</t>
+          <t>00:24:00</t>
         </is>
       </c>
       <c r="I77" t="inlineStr"/>
@@ -3499,7 +3503,7 @@
     </row>
     <row r="78">
       <c r="A78" t="n">
-        <v>17607191</v>
+        <v>17607190</v>
       </c>
       <c r="B78" t="inlineStr">
         <is>
@@ -3508,7 +3512,7 @@
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>Zprávy</t>
+          <t>Zprávy v půl</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
@@ -3516,20 +3520,16 @@
           <t>plus</t>
         </is>
       </c>
-      <c r="E78" t="inlineStr">
-        <is>
-          <t>Aktuální události doma i ve světě</t>
-        </is>
-      </c>
+      <c r="E78" t="inlineStr"/>
       <c r="F78" s="2" t="n">
-        <v>44605.875</v>
+        <v>44605.85416666666</v>
       </c>
       <c r="G78" s="2" t="n">
-        <v>44605.87899305556</v>
+        <v>44605.85672453704</v>
       </c>
       <c r="H78" t="inlineStr">
         <is>
-          <t>00:05:45</t>
+          <t>00:03:41</t>
         </is>
       </c>
       <c r="I78" t="inlineStr"/>
@@ -3539,7 +3539,7 @@
     </row>
     <row r="79">
       <c r="A79" t="n">
-        <v>17607192</v>
+        <v>17725296</v>
       </c>
       <c r="B79" t="inlineStr">
         <is>
@@ -3548,7 +3548,7 @@
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>Leonardo Plus</t>
+          <t>Příběhy 20. století</t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
@@ -3558,28 +3558,28 @@
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>Co dělali naši předci v únoru - o tom je dnešní Leonardo Plus s etnologem Martinem Šimšou. Od raného středověku až do poloviny 20. století byl únor nejtučnější a nejhojnější měsíc a byl spojený nejen s přejídáním, ale hlavně se zábavami a  veselicemi. Proč to tak je a jak je možné, že slovo karneval znají obyvatelé většiny zeměkoule, na to se zeptá Markéta Ševčíková.</t>
+          <t>V dnešních Příbězích 20. století se bude Adam Drda věnovat osudům známého českého právníka a někdejšího předsedy Nejvyššího správního soudu Josefa Baxy. Narodil se v roce 1959 a začal soudit už v komunistickém režimu ? patří k několika málo soudcům, kteří za pozdního totalitarismu osvobodili obžalované disidenty.</t>
         </is>
       </c>
       <c r="F79" s="2" t="n">
-        <v>44605.87847222222</v>
+        <v>44605.85680555556</v>
       </c>
       <c r="G79" s="2" t="n">
-        <v>44605.91666666666</v>
+        <v>44605.87491898148</v>
       </c>
       <c r="H79" t="inlineStr">
         <is>
-          <t>00:55:00</t>
+          <t>00:26:05</t>
         </is>
       </c>
       <c r="I79" t="inlineStr"/>
       <c r="J79" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="n">
-        <v>17607193</v>
+        <v>17607191</v>
       </c>
       <c r="B80" t="inlineStr">
         <is>
@@ -3588,7 +3588,7 @@
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>Zprávy v půl</t>
+          <t>Zprávy</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
@@ -3596,16 +3596,20 @@
           <t>plus</t>
         </is>
       </c>
-      <c r="E80" t="inlineStr"/>
+      <c r="E80" t="inlineStr">
+        <is>
+          <t>Aktuální události doma i ve světě</t>
+        </is>
+      </c>
       <c r="F80" s="2" t="n">
-        <v>44605.89583333334</v>
+        <v>44605.875</v>
       </c>
       <c r="G80" s="2" t="n">
-        <v>44605.89821759259</v>
+        <v>44605.87899305556</v>
       </c>
       <c r="H80" t="inlineStr">
         <is>
-          <t>00:03:26</t>
+          <t>00:05:45</t>
         </is>
       </c>
       <c r="I80" t="inlineStr"/>
@@ -3615,16 +3619,16 @@
     </row>
     <row r="81">
       <c r="A81" t="n">
-        <v>17607194</v>
+        <v>17607192</v>
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>zpr</t>
+          <t>pub</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>Zprávy</t>
+          <t>Leonardo Plus</t>
         </is>
       </c>
       <c r="D81" t="inlineStr">
@@ -3634,37 +3638,37 @@
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>Aktuální události doma i ve světě</t>
+          <t>Co dělali naši předci v únoru - o tom je dnešní Leonardo Plus s etnologem Martinem Šimšou. Od raného středověku až do poloviny 20. století byl únor nejtučnější a nejhojnější měsíc a byl spojený nejen s přejídáním, ale hlavně se zábavami a  veselicemi. Proč to tak je a jak je možné, že slovo karneval znají obyvatelé většiny zeměkoule, na to se zeptá Markéta Ševčíková.</t>
         </is>
       </c>
       <c r="F81" s="2" t="n">
-        <v>44605.91666666666</v>
+        <v>44605.87908564815</v>
       </c>
       <c r="G81" s="2" t="n">
-        <v>44605.92053240741</v>
+        <v>44605.89533564815</v>
       </c>
       <c r="H81" t="inlineStr">
         <is>
-          <t>00:05:34</t>
+          <t>00:23:24</t>
         </is>
       </c>
       <c r="I81" t="inlineStr"/>
       <c r="J81" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="n">
-        <v>17607195</v>
+        <v>17607193</v>
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>pub</t>
+          <t>zpr</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>Hovory</t>
+          <t>Zprávy v půl</t>
         </is>
       </c>
       <c r="D82" t="inlineStr">
@@ -3672,20 +3676,16 @@
           <t>plus</t>
         </is>
       </c>
-      <c r="E82" t="inlineStr">
-        <is>
-          <t>Hostem Hovorů je Jan Staněk z Domova svatého Josefa v Žírci - jediného lůžkového zařízení v České republice určené nemocným s roztroušenou sklerózou. Aktuálně je přitom v Česku kolem 25 tisíc lidí nemocných, v pokročilém stadiu choroby jich je až šest tisíc. Jak v Žírci pomáhají lidem, kteří se už sami nemůžou hýbat a jak se shání peníze na kvalitní péči? Ptá se Tatiana Čabáková.</t>
-        </is>
-      </c>
+      <c r="E82" t="inlineStr"/>
       <c r="F82" s="2" t="n">
-        <v>44605.92013888889</v>
+        <v>44605.89583333334</v>
       </c>
       <c r="G82" s="2" t="n">
-        <v>44605.9375</v>
+        <v>44605.89821759259</v>
       </c>
       <c r="H82" t="inlineStr">
         <is>
-          <t>00:25:00</t>
+          <t>00:03:26</t>
         </is>
       </c>
       <c r="I82" t="inlineStr"/>
@@ -3695,7 +3695,7 @@
     </row>
     <row r="83">
       <c r="A83" t="n">
-        <v>17607196</v>
+        <v>17734545</v>
       </c>
       <c r="B83" t="inlineStr">
         <is>
@@ -3704,7 +3704,7 @@
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>Zaostřeno</t>
+          <t>Leonardo Plus</t>
         </is>
       </c>
       <c r="D83" t="inlineStr">
@@ -3714,18 +3714,18 @@
       </c>
       <c r="E83" t="inlineStr">
         <is>
-          <t>Vodní elektrárny vyrobí v Česku jen asi 4,5 procenta elektrické energie. Jak se s tímto čistým zdrojem počítá do budoucna v rámci energetického mixu? Využívá stát veškerý možný potenciál vodní energie? A komu a proč mohou vodní elektrárny vadit? Téma pro pořad Zaostřeno a Víta Pohanku.</t>
+          <t>Co dělali naši předci v únoru - o tom je dnešní Leonardo Plus s etnologem Martinem Šimšou. Od raného středověku až do poloviny 20. století byl únor nejtučnější a nejhojnější měsíc a byl spojený nejen s přejídáním, ale hlavně se zábavami a  veselicemi. Proč to tak je a jak je možné, že slovo karneval znají obyvatelé většiny zeměkoule, na to se zeptá Markéta Ševčíková.</t>
         </is>
       </c>
       <c r="F83" s="2" t="n">
-        <v>44605.93958333333</v>
+        <v>44605.89829861111</v>
       </c>
       <c r="G83" s="2" t="n">
-        <v>44605.95833333334</v>
+        <v>44605.91616898148</v>
       </c>
       <c r="H83" t="inlineStr">
         <is>
-          <t>00:27:00</t>
+          <t>00:25:44</t>
         </is>
       </c>
       <c r="I83" t="inlineStr"/>
@@ -3735,7 +3735,7 @@
     </row>
     <row r="84">
       <c r="A84" t="n">
-        <v>17607197</v>
+        <v>17607194</v>
       </c>
       <c r="B84" t="inlineStr">
         <is>
@@ -3758,14 +3758,14 @@
         </is>
       </c>
       <c r="F84" s="2" t="n">
-        <v>44605.95833333334</v>
+        <v>44605.91666666666</v>
       </c>
       <c r="G84" s="2" t="n">
-        <v>44605.96230324074</v>
+        <v>44605.92053240741</v>
       </c>
       <c r="H84" t="inlineStr">
         <is>
-          <t>00:05:43</t>
+          <t>00:05:34</t>
         </is>
       </c>
       <c r="I84" t="inlineStr"/>
@@ -3775,7 +3775,7 @@
     </row>
     <row r="85">
       <c r="A85" t="n">
-        <v>17607198</v>
+        <v>17607195</v>
       </c>
       <c r="B85" t="inlineStr">
         <is>
@@ -3784,7 +3784,7 @@
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>Názory a argumenty</t>
+          <t>Hovory</t>
         </is>
       </c>
       <c r="D85" t="inlineStr">
@@ -3794,37 +3794,37 @@
       </c>
       <c r="E85" t="inlineStr">
         <is>
-          <t>Den pohledem renomovaných komentátorů</t>
+          <t>Hostem Hovorů je Jan Staněk z Domova svatého Josefa v Žírci - jediného lůžkového zařízení v České republice určené nemocným s roztroušenou sklerózou. Aktuálně je přitom v Česku kolem 25 tisíc lidí nemocných, v pokročilém stadiu choroby jich je až šest tisíc. Jak v Žírci pomáhají lidem, kteří se už sami nemůžou hýbat a jak se shání peníze na kvalitní péči? Ptá se Tatiana Čabáková.</t>
         </is>
       </c>
       <c r="F85" s="2" t="n">
-        <v>44605.96111111111</v>
+        <v>44605.92064814815</v>
       </c>
       <c r="G85" s="2" t="n">
-        <v>44605.97916666666</v>
+        <v>44605.93732638889</v>
       </c>
       <c r="H85" t="inlineStr">
         <is>
-          <t>00:26:00</t>
+          <t>00:24:01</t>
         </is>
       </c>
       <c r="I85" t="inlineStr"/>
       <c r="J85" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="n">
-        <v>17607199</v>
+        <v>17607196</v>
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>pro</t>
+          <t>pub</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>Radiokniha</t>
+          <t>Zaostřeno</t>
         </is>
       </c>
       <c r="D86" t="inlineStr">
@@ -3834,22 +3834,142 @@
       </c>
       <c r="E86" t="inlineStr">
         <is>
-          <t>Witold Szablowski: Jak nakrmit diktátora (3/15) Kdo vařil nejhorším diktátorům 20. století?  Co mohou říct o historii lidé, kteří se denně starali o jejich jídelníček? Ve třetím díle otevřeme kapitolu Papájový salát. Začíná v ní příběh Yong Moeun, kuchařky kambodžského diktátora Pol Pota. Přeložila Jarmila Horáková. Pro rozhlas připravila Jaroslava Jiskrová. Dramaturgie Alena Blažejovská. V režii Lukáše Kopeckého účinkují Jiří Valůšek a Marie Durnová.</t>
+          <t>Vodní elektrárny vyrobí v Česku jen asi 4,5 procenta elektrické energie. Jak se s tímto čistým zdrojem počítá do budoucna v rámci energetického mixu? Využívá stát veškerý možný potenciál vodní energie? A komu a proč mohou vodní elektrárny vadit? Téma pro pořad Zaostřeno a Víta Pohanku.</t>
         </is>
       </c>
       <c r="F86" s="2" t="n">
-        <v>44605.98125</v>
+        <v>44605.93931712963</v>
       </c>
       <c r="G86" s="2" t="n">
-        <v>44606</v>
+        <v>44605.95677083333</v>
       </c>
       <c r="H86" t="inlineStr">
         <is>
-          <t>00:27:00</t>
+          <t>00:25:08</t>
         </is>
       </c>
       <c r="I86" t="inlineStr"/>
       <c r="J86" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="n">
+        <v>17607197</v>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>zpr</t>
+        </is>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>Zprávy</t>
+        </is>
+      </c>
+      <c r="D87" t="inlineStr">
+        <is>
+          <t>plus</t>
+        </is>
+      </c>
+      <c r="E87" t="inlineStr">
+        <is>
+          <t>Aktuální události doma i ve světě</t>
+        </is>
+      </c>
+      <c r="F87" s="2" t="n">
+        <v>44605.95833333334</v>
+      </c>
+      <c r="G87" s="2" t="n">
+        <v>44605.96230324074</v>
+      </c>
+      <c r="H87" t="inlineStr">
+        <is>
+          <t>00:05:43</t>
+        </is>
+      </c>
+      <c r="I87" t="inlineStr"/>
+      <c r="J87" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="n">
+        <v>17607198</v>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>pub</t>
+        </is>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>Názory a argumenty</t>
+        </is>
+      </c>
+      <c r="D88" t="inlineStr">
+        <is>
+          <t>plus</t>
+        </is>
+      </c>
+      <c r="E88" t="inlineStr">
+        <is>
+          <t>Den pohledem renomovaných komentátorů</t>
+        </is>
+      </c>
+      <c r="F88" s="2" t="n">
+        <v>44605.96239583333</v>
+      </c>
+      <c r="G88" s="2" t="n">
+        <v>44605.98069444444</v>
+      </c>
+      <c r="H88" t="inlineStr">
+        <is>
+          <t>00:26:21</t>
+        </is>
+      </c>
+      <c r="I88" t="inlineStr"/>
+      <c r="J88" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="n">
+        <v>17607199</v>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>pro</t>
+        </is>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>Radiokniha</t>
+        </is>
+      </c>
+      <c r="D89" t="inlineStr">
+        <is>
+          <t>plus</t>
+        </is>
+      </c>
+      <c r="E89" t="inlineStr">
+        <is>
+          <t>Witold Szablowski: Jak nakrmit diktátora (3/15) Kdo vařil nejhorším diktátorům 20. století?  Co mohou říct o historii lidé, kteří se denně starali o jejich jídelníček? Ve třetím díle otevřeme kapitolu Papájový salát. Začíná v ní příběh Yong Moeun, kuchařky kambodžského diktátora Pol Pota. Přeložila Jarmila Horáková. Pro rozhlas připravila Jaroslava Jiskrová. Dramaturgie Alena Blažejovská. V režii Lukáše Kopeckého účinkují Jiří Valůšek a Marie Durnová.</t>
+        </is>
+      </c>
+      <c r="F89" s="2" t="n">
+        <v>44605.98074074074</v>
+      </c>
+      <c r="G89" s="2" t="n">
+        <v>44605.9999537037</v>
+      </c>
+      <c r="H89" t="inlineStr">
+        <is>
+          <t>00:27:40</t>
+        </is>
+      </c>
+      <c r="I89" t="inlineStr"/>
+      <c r="J89" t="b">
         <v>0</v>
       </c>
     </row>
